--- a/Clean-400.xlsx
+++ b/Clean-400.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -405,10 +405,10 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1.144577646755761E-07</v>
+        <v>2.407675057827478E-07</v>
       </c>
       <c r="D2">
-        <v>6.557946848412068E-06</v>
+        <v>1.379496192524309E-05</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -419,10 +419,10 @@
         <v>0.009999999776482582</v>
       </c>
       <c r="C3">
-        <v>9.480977412840724E-08</v>
+        <v>1.968163762013436E-07</v>
       </c>
       <c r="D3">
-        <v>5.432199914146359E-06</v>
+        <v>1.127674769539605E-05</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -433,10 +433,10 @@
         <v>0.01999999955296516</v>
       </c>
       <c r="C4">
-        <v>7.583117168174196E-08</v>
+        <v>1.546915119810986E-07</v>
       </c>
       <c r="D4">
-        <v>4.344806092895779E-06</v>
+        <v>8.863170763014356E-06</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -447,10 +447,10 @@
         <v>0.0350000001490116</v>
       </c>
       <c r="C5">
-        <v>4.865469052753616E-08</v>
+        <v>9.494360173663979E-08</v>
       </c>
       <c r="D5">
-        <v>2.787708420742967E-06</v>
+        <v>5.439867671280413E-06</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -461,10 +461,10 @@
         <v>0.05750000104308128</v>
       </c>
       <c r="C6">
-        <v>1.086037849221447E-08</v>
+        <v>1.311428697478275E-08</v>
       </c>
       <c r="D6">
-        <v>6.222538515185419E-07</v>
+        <v>7.513932949784397E-07</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -475,10 +475,10 @@
         <v>0.09125000238418579</v>
       </c>
       <c r="C7">
-        <v>-3.884980822991841E-08</v>
+        <v>-9.187634858925974E-08</v>
       </c>
       <c r="D7">
-        <v>-2.225930046466936E-06</v>
+        <v>-5.264127011237318E-06</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -489,10 +489,10 @@
         <v>0.1412499994039536</v>
       </c>
       <c r="C8">
-        <v>-9.611144776127799E-08</v>
+        <v>-2.076033467551591E-07</v>
       </c>
       <c r="D8">
-        <v>-5.506780319613313E-06</v>
+        <v>-1.189479558186157E-05</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -503,10 +503,10 @@
         <v>0.1912499964237213</v>
       </c>
       <c r="C9">
-        <v>-1.323019140419624E-07</v>
+        <v>-2.746396365671056E-07</v>
       </c>
       <c r="D9">
-        <v>-7.580341296107046E-06</v>
+        <v>-1.573569206230194E-05</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -517,10 +517,10 @@
         <v>0.2412499934434891</v>
       </c>
       <c r="C10">
-        <v>-1.455003542617187E-07</v>
+        <v>-2.915009226715348E-07</v>
       </c>
       <c r="D10">
-        <v>-8.336556216854804E-06</v>
+        <v>-1.670177259324832E-05</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -531,10 +531,10 @@
         <v>0.2912499904632568</v>
       </c>
       <c r="C11">
-        <v>-1.335530849668571E-07</v>
+        <v>-2.567320135453931E-07</v>
       </c>
       <c r="D11">
-        <v>-7.652028109552996E-06</v>
+        <v>-1.470966084204651E-05</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -545,10 +545,10 @@
         <v>0.3412500023841857</v>
       </c>
       <c r="C12">
-        <v>-9.408910334727551E-08</v>
+        <v>-1.683008070761226E-07</v>
       </c>
       <c r="D12">
-        <v>-5.390908519969114E-06</v>
+        <v>-9.642925934107328E-06</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -559,10 +559,10 @@
         <v>0.3912500143051147</v>
       </c>
       <c r="C13">
-        <v>-2.429893039080158E-08</v>
+        <v>-2.45723227386245E-08</v>
       </c>
       <c r="D13">
-        <v>-1.392226158075103E-06</v>
+        <v>-1.407890385756529E-06</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -573,10 +573,10 @@
         <v>0.4412499964237213</v>
       </c>
       <c r="C14">
-        <v>7.998120039941041E-08</v>
+        <v>1.76559247296211E-07</v>
       </c>
       <c r="D14">
-        <v>4.582585223276271E-06</v>
+        <v>1.011609970407948E-05</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -587,10 +587,10 @@
         <v>0.4912500083446503</v>
       </c>
       <c r="C15">
-        <v>2.401096630933689E-07</v>
+        <v>4.383328679664379E-07</v>
       </c>
       <c r="D15">
-        <v>1.375727031555815E-05</v>
+        <v>2.511462335634205E-05</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -601,10 +601,10 @@
         <v>0.5412499904632568</v>
       </c>
       <c r="C16">
-        <v>4.528888738262841E-07</v>
+        <v>7.621661872066459E-07</v>
       </c>
       <c r="D16">
-        <v>2.594862105867894E-05</v>
+        <v>4.366890581451861E-05</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -615,10 +615,10 @@
         <v>0.5912500023841858</v>
       </c>
       <c r="C17">
-        <v>6.18488746980078E-06</v>
+        <v>1.160611395701911E-06</v>
       </c>
       <c r="D17">
-        <v>0.0003543679487829311</v>
+        <v>6.649813462850744E-05</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -629,10 +629,10 @@
         <v>0.6037499904632568</v>
       </c>
       <c r="C18">
-        <v>1.78122759471439E-05</v>
+        <v>1.531155421565737E-06</v>
       </c>
       <c r="D18">
-        <v>0.001020568235293737</v>
+        <v>8.772874343429105E-05</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -643,10 +643,10 @@
         <v>0.6162499785423279</v>
       </c>
       <c r="C19">
-        <v>3.169358147037831E-05</v>
+        <v>1.94128065685072E-06</v>
       </c>
       <c r="D19">
-        <v>0.001815908455906707</v>
+        <v>0.0001112271884879305</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -657,10 +657,10 @@
         <v>0.6349999904632568</v>
       </c>
       <c r="C20">
-        <v>5.52944588799874E-05</v>
+        <v>2.612570362861902E-06</v>
       </c>
       <c r="D20">
-        <v>0.003168139124282955</v>
+        <v>0.000149689255472949</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -671,10 +671,164 @@
         <v>0.6631249785423279</v>
       </c>
       <c r="C21">
-        <v>9.642658306454862E-05</v>
+        <v>3.744545309557895E-06</v>
       </c>
       <c r="D21">
-        <v>0.005524836242466295</v>
+        <v>0.0002145466424331758</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>0.7053124904632568</v>
+      </c>
+      <c r="C22">
+        <v>5.723989645742104E-06</v>
+      </c>
+      <c r="D22">
+        <v>0.0003279604486776058</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>0.7553125023841859</v>
+      </c>
+      <c r="C23">
+        <v>8.50464158478172E-06</v>
+      </c>
+      <c r="D23">
+        <v>0.0004872800690794445</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>0.8053125143051147</v>
+      </c>
+      <c r="C24">
+        <v>1.176469181910335E-05</v>
+      </c>
+      <c r="D24">
+        <v>0.000674067188506709</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0.8553125262260437</v>
+      </c>
+      <c r="C25">
+        <v>1.551485055831768E-05</v>
+      </c>
+      <c r="D25">
+        <v>0.000888935456767792</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>0.905312478542328</v>
+      </c>
+      <c r="C26">
+        <v>1.97560697890722E-05</v>
+      </c>
+      <c r="D26">
+        <v>0.001131939418679748</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>0.9178125262260435</v>
+      </c>
+      <c r="C27">
+        <v>2.089330446041317E-05</v>
+      </c>
+      <c r="D27">
+        <v>0.001197098165663533</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>0.936562478542328</v>
+      </c>
+      <c r="C28">
+        <v>2.265565922666144E-05</v>
+      </c>
+      <c r="D28">
+        <v>0.001298073655774323</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>0.9646875262260435</v>
+      </c>
+      <c r="C29">
+        <v>2.542674124060562E-05</v>
+      </c>
+      <c r="D29">
+        <v>0.001456844959857937</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>0.9752343893051149</v>
+      </c>
+      <c r="C30">
+        <v>8.281019151253673E-06</v>
+      </c>
+      <c r="D30">
+        <v>0.0004744674474338426</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>0.9910547137260435</v>
+      </c>
+      <c r="C31">
+        <v>-1.734677036379067E-05</v>
+      </c>
+      <c r="D31">
+        <v>-0.0009938967300278209</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>1.014785170555115</v>
+      </c>
+      <c r="C32">
+        <v>-5.557703407987891E-05</v>
+      </c>
+      <c r="D32">
+        <v>-0.003184329490631804</v>
       </c>
     </row>
   </sheetData>
